--- a/用例数据/深权/普通平仓/测试结果.xlsx
+++ b/用例数据/深权/普通平仓/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深权\普通平仓\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8700" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="8700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stkoptionsettlement" sheetId="1" r:id="rId1"/>
@@ -4739,14 +4744,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4755,352 +4754,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -5108,311 +4777,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5699,76 +5082,76 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="4" width="14.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="7.66666666666667" customWidth="1"/>
-    <col min="6" max="7" width="11.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="12" width="7.66666666666667" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="11.8888888888889" customWidth="1"/>
-    <col min="18" max="18" width="10.7777777777778" customWidth="1"/>
-    <col min="19" max="19" width="8.66666666666667" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="5.66666666666667" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" customWidth="1"/>
     <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="10.7777777777778" customWidth="1"/>
-    <col min="24" max="24" width="14.1111111111111" customWidth="1"/>
-    <col min="25" max="25" width="7.66666666666667" customWidth="1"/>
-    <col min="26" max="26" width="11.8888888888889" customWidth="1"/>
-    <col min="27" max="27" width="10.7777777777778" customWidth="1"/>
-    <col min="28" max="28" width="11.8888888888889" customWidth="1"/>
-    <col min="29" max="30" width="18.6666666666667" customWidth="1"/>
-    <col min="31" max="31" width="9.66666666666667" customWidth="1"/>
+    <col min="23" max="23" width="10.77734375" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.88671875" customWidth="1"/>
+    <col min="27" max="27" width="10.77734375" customWidth="1"/>
+    <col min="28" max="28" width="11.88671875" customWidth="1"/>
+    <col min="29" max="30" width="18.6640625" customWidth="1"/>
+    <col min="31" max="31" width="9.6640625" customWidth="1"/>
     <col min="32" max="32" width="13" customWidth="1"/>
-    <col min="33" max="33" width="8.66666666666667" customWidth="1"/>
-    <col min="34" max="34" width="11.8888888888889" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="36" width="7.66666666666667" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="36" width="7.6640625" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="14.1111111111111" customWidth="1"/>
-    <col min="40" max="41" width="10.7777777777778" customWidth="1"/>
-    <col min="42" max="42" width="14.1111111111111" customWidth="1"/>
-    <col min="43" max="43" width="10.7777777777778" customWidth="1"/>
-    <col min="44" max="44" width="11.8888888888889" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="47" width="11.8888888888889" customWidth="1"/>
-    <col min="48" max="48" width="14.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="16.4444444444444" customWidth="1"/>
-    <col min="50" max="50" width="14.1111111111111" customWidth="1"/>
-    <col min="51" max="51" width="8.66666666666667" customWidth="1"/>
-    <col min="52" max="52" width="11.8888888888889" customWidth="1"/>
-    <col min="53" max="53" width="5.66666666666667" customWidth="1"/>
-    <col min="54" max="54" width="16.4444444444444" customWidth="1"/>
-    <col min="55" max="55" width="11.8888888888889" customWidth="1"/>
+    <col min="39" max="39" width="14.109375" customWidth="1"/>
+    <col min="40" max="41" width="10.77734375" customWidth="1"/>
+    <col min="42" max="42" width="14.109375" customWidth="1"/>
+    <col min="43" max="43" width="10.77734375" customWidth="1"/>
+    <col min="44" max="44" width="11.88671875" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="47" width="11.88671875" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="16.44140625" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" customWidth="1"/>
+    <col min="51" max="51" width="8.6640625" customWidth="1"/>
+    <col min="52" max="52" width="11.88671875" customWidth="1"/>
+    <col min="53" max="53" width="5.6640625" customWidth="1"/>
+    <col min="54" max="54" width="16.44140625" customWidth="1"/>
+    <col min="55" max="55" width="11.88671875" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="11.8888888888889" customWidth="1"/>
-    <col min="59" max="59" width="20.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="11.88671875" customWidth="1"/>
+    <col min="59" max="59" width="20.88671875" customWidth="1"/>
     <col min="60" max="60" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:60">
+    <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5950,7 +5333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:60">
+    <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6090,7 +5473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:60">
+    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -6230,7 +5613,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:60">
+    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -6370,7 +5753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:60">
+    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -6510,7 +5893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:60">
+    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -6650,7 +6033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:60">
+    <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -6790,7 +6173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:60">
+    <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -6930,7 +6313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:60">
+    <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -7070,7 +6453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:60">
+    <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -7210,7 +6593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:60">
+    <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -7350,7 +6733,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:60">
+    <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -7490,7 +6873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:60">
+    <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -7630,7 +7013,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:60">
+    <row r="14" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -7770,7 +7153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:60">
+    <row r="15" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -7910,7 +7293,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:60">
+    <row r="16" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -8050,7 +7433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:60">
+    <row r="17" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -8190,7 +7573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:60">
+    <row r="18" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -8330,7 +7713,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:60">
+    <row r="19" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -8470,7 +7853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:60">
+    <row r="20" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -8610,7 +7993,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:60">
+    <row r="21" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -8750,7 +8133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:60">
+    <row r="22" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -8890,7 +8273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:60">
+    <row r="23" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -9030,7 +8413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:60">
+    <row r="24" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -9170,7 +8553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:60">
+    <row r="25" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -9310,7 +8693,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:60">
+    <row r="26" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -9450,7 +8833,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:60">
+    <row r="27" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -9590,7 +8973,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:60">
+    <row r="28" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -9730,7 +9113,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:60">
+    <row r="29" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -9870,7 +9253,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:60">
+    <row r="30" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -10010,7 +9393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:60">
+    <row r="31" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -10150,7 +9533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:60">
+    <row r="32" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -10290,7 +9673,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:60">
+    <row r="33" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -10430,7 +9813,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:60">
+    <row r="34" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -10570,7 +9953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:60">
+    <row r="35" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -10710,7 +10093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:60">
+    <row r="36" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -10850,7 +10233,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:60">
+    <row r="37" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -10990,7 +10373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:60">
+    <row r="38" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -11130,7 +10513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:60">
+    <row r="39" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -11270,7 +10653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:60">
+    <row r="40" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -11410,7 +10793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:60">
+    <row r="41" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
@@ -11550,7 +10933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:60">
+    <row r="42" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>60</v>
       </c>
@@ -11690,7 +11073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:60">
+    <row r="43" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -11830,7 +11213,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:60">
+    <row r="44" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -11970,7 +11353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:60">
+    <row r="45" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -12110,7 +11493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:60">
+    <row r="46" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -12250,7 +11633,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:60">
+    <row r="47" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
@@ -12390,7 +11773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:60">
+    <row r="48" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -12530,7 +11913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:60">
+    <row r="49" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -12670,7 +12053,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:60">
+    <row r="50" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -12810,7 +12193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:60">
+    <row r="51" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
@@ -12950,7 +12333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:60">
+    <row r="52" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -13090,7 +12473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:60">
+    <row r="53" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -13230,7 +12613,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:60">
+    <row r="54" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
@@ -13370,7 +12753,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:60">
+    <row r="55" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
@@ -13510,7 +12893,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:60">
+    <row r="56" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -13650,7 +13033,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:60">
+    <row r="57" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -13790,7 +13173,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:60">
+    <row r="58" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -13930,7 +13313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:60">
+    <row r="59" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -14070,7 +13453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:60">
+    <row r="60" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -14210,7 +13593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:60">
+    <row r="61" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -14350,7 +13733,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:60">
+    <row r="62" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -14490,7 +13873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:60">
+    <row r="63" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -14630,7 +14013,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:60">
+    <row r="64" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
@@ -14770,7 +14153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:60">
+    <row r="65" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
@@ -14910,7 +14293,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:60">
+    <row r="66" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
@@ -15050,7 +14433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="1:60">
+    <row r="67" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>60</v>
       </c>
@@ -15190,7 +14573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:60">
+    <row r="68" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -15330,7 +14713,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" spans="1:60">
+    <row r="69" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
@@ -15470,7 +14853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" spans="1:60">
+    <row r="70" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
@@ -15610,7 +14993,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" spans="1:60">
+    <row r="71" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>60</v>
       </c>
@@ -15750,7 +15133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" spans="1:60">
+    <row r="72" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>60</v>
       </c>
@@ -15890,7 +15273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" spans="1:60">
+    <row r="73" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>60</v>
       </c>
@@ -16030,7 +15413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" spans="1:60">
+    <row r="74" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>60</v>
       </c>
@@ -16170,7 +15553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" spans="1:60">
+    <row r="75" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>60</v>
       </c>
@@ -16310,7 +15693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" spans="1:60">
+    <row r="76" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>60</v>
       </c>
@@ -16450,7 +15833,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" spans="1:60">
+    <row r="77" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>60</v>
       </c>
@@ -16590,7 +15973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" spans="1:60">
+    <row r="78" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
@@ -16730,7 +16113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" spans="1:60">
+    <row r="79" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>60</v>
       </c>
@@ -16870,7 +16253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" spans="1:60">
+    <row r="80" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>60</v>
       </c>
@@ -17010,7 +16393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" spans="1:60">
+    <row r="81" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>60</v>
       </c>
@@ -17150,7 +16533,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" spans="1:60">
+    <row r="82" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>60</v>
       </c>
@@ -17290,7 +16673,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" spans="1:60">
+    <row r="83" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -17430,7 +16813,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" spans="1:60">
+    <row r="84" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>60</v>
       </c>
@@ -17570,7 +16953,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" spans="1:60">
+    <row r="85" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>60</v>
       </c>
@@ -17710,7 +17093,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" spans="1:60">
+    <row r="86" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>60</v>
       </c>
@@ -17850,7 +17233,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" spans="1:60">
+    <row r="87" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>60</v>
       </c>
@@ -17990,7 +17373,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" spans="1:60">
+    <row r="88" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>60</v>
       </c>
@@ -18130,7 +17513,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" spans="1:60">
+    <row r="89" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>60</v>
       </c>
@@ -18270,7 +17653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" spans="1:60">
+    <row r="90" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>60</v>
       </c>
@@ -18410,7 +17793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" spans="1:60">
+    <row r="91" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>60</v>
       </c>
@@ -18550,76 +17933,75 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1"/>
-    <row r="93" s="1" customFormat="1"/>
-    <row r="94" s="1" customFormat="1"/>
-    <row r="95" s="1" customFormat="1"/>
-    <row r="96" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1"/>
-    <row r="98" s="1" customFormat="1"/>
-    <row r="99" s="1" customFormat="1"/>
-    <row r="100" s="1" customFormat="1"/>
-    <row r="101" s="1" customFormat="1"/>
-    <row r="102" s="1" customFormat="1"/>
-    <row r="103" s="1" customFormat="1"/>
-    <row r="104" s="1" customFormat="1"/>
-    <row r="105" s="1" customFormat="1"/>
-    <row r="106" s="1" customFormat="1"/>
-    <row r="107" s="1" customFormat="1"/>
-    <row r="108" s="1" customFormat="1"/>
-    <row r="109" s="1" customFormat="1"/>
-    <row r="110" s="1" customFormat="1"/>
-    <row r="111" s="1" customFormat="1"/>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="1" customFormat="1"/>
-    <row r="121" s="1" customFormat="1"/>
-    <row r="122" s="1" customFormat="1"/>
-    <row r="123" s="1" customFormat="1"/>
-    <row r="124" s="1" customFormat="1"/>
-    <row r="125" s="1" customFormat="1"/>
-    <row r="126" s="1" customFormat="1"/>
-    <row r="127" s="1" customFormat="1"/>
-    <row r="128" s="1" customFormat="1"/>
-    <row r="129" s="1" customFormat="1"/>
-    <row r="130" s="1" customFormat="1"/>
-    <row r="131" s="1" customFormat="1"/>
-    <row r="132" s="1" customFormat="1"/>
-    <row r="133" s="1" customFormat="1"/>
-    <row r="134" s="1" customFormat="1"/>
-    <row r="135" s="1" customFormat="1"/>
-    <row r="136" s="1" customFormat="1"/>
-    <row r="137" s="1" customFormat="1"/>
-    <row r="138" s="1" customFormat="1"/>
-    <row r="139" s="1" customFormat="1"/>
+    <row r="92" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX126"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:102">
+    <row r="1" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -18927,7 +18309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:102">
+    <row r="2" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>762</v>
       </c>
@@ -19178,7 +18560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:102">
+    <row r="3" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>789</v>
       </c>
@@ -19429,7 +18811,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:102">
+    <row r="4" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>792</v>
       </c>
@@ -19680,7 +19062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:102">
+    <row r="5" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>795</v>
       </c>
@@ -19931,7 +19313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:102">
+    <row r="6" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>804</v>
       </c>
@@ -20182,7 +19564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:102">
+    <row r="7" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>812</v>
       </c>
@@ -20433,7 +19815,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:102">
+    <row r="8" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>818</v>
       </c>
@@ -20684,7 +20066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:102">
+    <row r="9" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>829</v>
       </c>
@@ -20935,7 +20317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:102">
+    <row r="10" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>832</v>
       </c>
@@ -21186,7 +20568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:102">
+    <row r="11" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>835</v>
       </c>
@@ -21437,7 +20819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:102">
+    <row r="12" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>840</v>
       </c>
@@ -21688,7 +21070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:102">
+    <row r="13" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>844</v>
       </c>
@@ -21939,7 +21321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:102">
+    <row r="14" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>846</v>
       </c>
@@ -22190,7 +21572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:102">
+    <row r="15" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>853</v>
       </c>
@@ -22441,7 +21823,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:102">
+    <row r="16" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>858</v>
       </c>
@@ -22692,7 +22074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:102">
+    <row r="17" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>861</v>
       </c>
@@ -22943,7 +22325,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:102">
+    <row r="18" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>868</v>
       </c>
@@ -23194,7 +22576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:102">
+    <row r="19" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>873</v>
       </c>
@@ -23445,7 +22827,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:102">
+    <row r="20" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>875</v>
       </c>
@@ -23696,7 +23078,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:102">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>881</v>
       </c>
@@ -23966,7 +23348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:102">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>887</v>
       </c>
@@ -24236,7 +23618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:102">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>894</v>
       </c>
@@ -24506,7 +23888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:102">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>899</v>
       </c>
@@ -24776,7 +24158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:102">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>903</v>
       </c>
@@ -25046,7 +24428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:102">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>905</v>
       </c>
@@ -25316,7 +24698,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:102">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>910</v>
       </c>
@@ -25586,7 +24968,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:102">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>915</v>
       </c>
@@ -25856,7 +25238,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:102">
+    <row r="29" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>918</v>
       </c>
@@ -26126,7 +25508,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:102">
+    <row r="30" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>921</v>
       </c>
@@ -26396,7 +25778,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:102">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>925</v>
       </c>
@@ -26666,7 +26048,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:102">
+    <row r="32" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>929</v>
       </c>
@@ -26936,7 +26318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:102">
+    <row r="33" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>942</v>
       </c>
@@ -27206,7 +26588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:102">
+    <row r="34" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>953</v>
       </c>
@@ -27476,7 +26858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:102">
+    <row r="35" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>960</v>
       </c>
@@ -27746,7 +27128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:102">
+    <row r="36" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>966</v>
       </c>
@@ -28016,7 +27398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:102">
+    <row r="37" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>970</v>
       </c>
@@ -28286,7 +27668,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:102">
+    <row r="38" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>979</v>
       </c>
@@ -28556,7 +27938,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:102">
+    <row r="39" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>983</v>
       </c>
@@ -28828,7 +28210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:102">
+    <row r="40" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>988</v>
       </c>
@@ -29098,7 +28480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:102">
+    <row r="41" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>998</v>
       </c>
@@ -29370,7 +28752,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:102">
+    <row r="42" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1001</v>
       </c>
@@ -29640,7 +29022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:102">
+    <row r="43" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1010</v>
       </c>
@@ -29910,7 +29292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:102">
+    <row r="44" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1019</v>
       </c>
@@ -30180,7 +29562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:102">
+    <row r="45" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1026</v>
       </c>
@@ -30450,7 +29832,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:102">
+    <row r="46" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1033</v>
       </c>
@@ -30720,7 +30102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:102">
+    <row r="47" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1041</v>
       </c>
@@ -30990,7 +30372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:102">
+    <row r="48" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1049</v>
       </c>
@@ -31260,7 +30642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:102">
+    <row r="49" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1057</v>
       </c>
@@ -31530,7 +30912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:102">
+    <row r="50" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1063</v>
       </c>
@@ -31800,7 +31182,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:102">
+    <row r="51" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1069</v>
       </c>
@@ -32070,7 +31452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:102">
+    <row r="52" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1077</v>
       </c>
@@ -32340,7 +31722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:102">
+    <row r="53" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1081</v>
       </c>
@@ -32612,7 +31994,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:102">
+    <row r="54" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1085</v>
       </c>
@@ -32882,7 +32264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:102">
+    <row r="55" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1094</v>
       </c>
@@ -33154,7 +32536,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:102">
+    <row r="56" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1097</v>
       </c>
@@ -33424,7 +32806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:102">
+    <row r="57" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1106</v>
       </c>
@@ -33694,7 +33076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:102">
+    <row r="58" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>1115</v>
       </c>
@@ -33964,7 +33346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:102">
+    <row r="59" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1122</v>
       </c>
@@ -34234,7 +33616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:102">
+    <row r="60" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1129</v>
       </c>
@@ -34504,7 +33886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:102">
+    <row r="61" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1138</v>
       </c>
@@ -34774,7 +34156,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:102">
+    <row r="62" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1141</v>
       </c>
@@ -35046,7 +34428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:102">
+    <row r="63" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1144</v>
       </c>
@@ -35316,7 +34698,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:102">
+    <row r="64" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1153</v>
       </c>
@@ -35588,7 +34970,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:102">
+    <row r="65" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1164</v>
       </c>
@@ -35858,7 +35240,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:102">
+    <row r="66" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1174</v>
       </c>
@@ -36128,7 +35510,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" spans="1:102">
+    <row r="67" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1184</v>
       </c>
@@ -36398,7 +35780,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="68" spans="1:102">
+    <row r="68" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1191</v>
       </c>
@@ -36668,7 +36050,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:102">
+    <row r="69" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1198</v>
       </c>
@@ -36938,7 +36320,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" spans="1:102">
+    <row r="70" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1207</v>
       </c>
@@ -37208,7 +36590,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" spans="1:102">
+    <row r="71" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1210</v>
       </c>
@@ -37480,7 +36862,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" spans="1:102">
+    <row r="72" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1213</v>
       </c>
@@ -37750,7 +37132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:102">
+    <row r="73" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1222</v>
       </c>
@@ -38020,7 +37402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:102">
+    <row r="74" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1225</v>
       </c>
@@ -38292,7 +37674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:102">
+    <row r="75" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1228</v>
       </c>
@@ -38562,7 +37944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:102">
+    <row r="76" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1234</v>
       </c>
@@ -38832,7 +38214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:102">
+    <row r="77" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1239</v>
       </c>
@@ -39102,7 +38484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:102">
+    <row r="78" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1244</v>
       </c>
@@ -39372,7 +38754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:102">
+    <row r="79" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>1246</v>
       </c>
@@ -39642,7 +39024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:102">
+    <row r="80" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1248</v>
       </c>
@@ -39912,7 +39294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:102">
+    <row r="81" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1255</v>
       </c>
@@ -40182,7 +39564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:102">
+    <row r="82" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1261</v>
       </c>
@@ -40454,7 +39836,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:102">
+    <row r="83" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1264</v>
       </c>
@@ -40724,7 +40106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:102">
+    <row r="84" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1271</v>
       </c>
@@ -40994,7 +40376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:102">
+    <row r="85" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1277</v>
       </c>
@@ -41264,7 +40646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:102">
+    <row r="86" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1283</v>
       </c>
@@ -41534,7 +40916,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:102">
+    <row r="87" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1285</v>
       </c>
@@ -41804,7 +41186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:102">
+    <row r="88" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1287</v>
       </c>
@@ -42074,7 +41456,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:102">
+    <row r="89" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1293</v>
       </c>
@@ -42344,7 +41726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:102">
+    <row r="90" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1295</v>
       </c>
@@ -42616,7 +41998,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:102">
+    <row r="91" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1297</v>
       </c>
@@ -42886,7 +42268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:102">
+    <row r="92" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1302</v>
       </c>
@@ -43156,7 +42538,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:102">
+    <row r="93" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1305</v>
       </c>
@@ -43426,7 +42808,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:102">
+    <row r="94" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1308</v>
       </c>
@@ -43696,7 +43078,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:102">
+    <row r="95" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1310</v>
       </c>
@@ -43966,7 +43348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:102">
+    <row r="96" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1312</v>
       </c>
@@ -44236,7 +43618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:102">
+    <row r="97" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>1318</v>
       </c>
@@ -44506,7 +43888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:102">
+    <row r="98" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1320</v>
       </c>
@@ -44778,7 +44160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:102">
+    <row r="99" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1322</v>
       </c>
@@ -45048,7 +44430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:102">
+    <row r="100" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1329</v>
       </c>
@@ -45318,7 +44700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:102">
+    <row r="101" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1335</v>
       </c>
@@ -45588,7 +44970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:102">
+    <row r="102" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>1341</v>
       </c>
@@ -45858,7 +45240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:102">
+    <row r="103" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1343</v>
       </c>
@@ -46128,7 +45510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:102">
+    <row r="104" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1345</v>
       </c>
@@ -46398,7 +45780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:102">
+    <row r="105" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1351</v>
       </c>
@@ -46668,7 +46050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:102">
+    <row r="106" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1354</v>
       </c>
@@ -46940,7 +46322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:102">
+    <row r="107" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1356</v>
       </c>
@@ -47210,7 +46592,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="108" spans="1:102">
+    <row r="108" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1363</v>
       </c>
@@ -47480,7 +46862,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="1:102">
+    <row r="109" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1370</v>
       </c>
@@ -47750,7 +47132,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="110" spans="1:102">
+    <row r="110" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1375</v>
       </c>
@@ -48020,7 +47402,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:102">
+    <row r="111" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1382</v>
       </c>
@@ -48290,7 +47672,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="112" spans="1:102">
+    <row r="112" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1384</v>
       </c>
@@ -48560,7 +47942,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:102">
+    <row r="113" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1390</v>
       </c>
@@ -48830,7 +48212,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="114" spans="1:102">
+    <row r="114" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1395</v>
       </c>
@@ -49102,7 +48484,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="115" spans="1:102">
+    <row r="115" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1398</v>
       </c>
@@ -49362,7 +48744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:102">
+    <row r="116" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1407</v>
       </c>
@@ -49622,7 +49004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:102">
+    <row r="117" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1410</v>
       </c>
@@ -49882,7 +49264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:102">
+    <row r="118" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1414</v>
       </c>
@@ -50142,7 +49524,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:102">
+    <row r="119" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1418</v>
       </c>
@@ -50402,7 +49784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:102">
+    <row r="120" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>1421</v>
       </c>
@@ -50662,7 +50044,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:102">
+    <row r="121" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1424</v>
       </c>
@@ -50922,7 +50304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:102">
+    <row r="122" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1426</v>
       </c>
@@ -51182,7 +50564,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:102">
+    <row r="123" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1428</v>
       </c>
@@ -51442,7 +50824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:102">
+    <row r="124" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1431</v>
       </c>
@@ -51702,7 +51084,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:102">
+    <row r="125" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1434</v>
       </c>
@@ -51962,7 +51344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:102">
+    <row r="126" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1436</v>
       </c>
@@ -52223,71 +51605,70 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="9" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="9" width="11.88671875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="10.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="11.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="9.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="19.7777777777778" customWidth="1"/>
-    <col min="16" max="16" width="7.66666666666667" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="16.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="20.8888888888889" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="20.88671875" customWidth="1"/>
     <col min="20" max="20" width="22" customWidth="1"/>
-    <col min="21" max="21" width="25.4444444444444" customWidth="1"/>
+    <col min="21" max="21" width="25.44140625" customWidth="1"/>
     <col min="22" max="22" width="22" customWidth="1"/>
-    <col min="23" max="23" width="27.6666666666667" customWidth="1"/>
-    <col min="24" max="24" width="24.2222222222222" customWidth="1"/>
-    <col min="25" max="25" width="17.5555555555556" customWidth="1"/>
-    <col min="26" max="26" width="15.2222222222222" customWidth="1"/>
-    <col min="27" max="27" width="20.8888888888889" customWidth="1"/>
-    <col min="28" max="28" width="19.7777777777778" customWidth="1"/>
-    <col min="29" max="29" width="11.8888888888889" customWidth="1"/>
+    <col min="23" max="23" width="27.6640625" customWidth="1"/>
+    <col min="24" max="24" width="24.21875" customWidth="1"/>
+    <col min="25" max="25" width="17.5546875" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" customWidth="1"/>
+    <col min="27" max="27" width="20.88671875" customWidth="1"/>
+    <col min="28" max="28" width="19.77734375" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" customWidth="1"/>
     <col min="30" max="30" width="13" customWidth="1"/>
-    <col min="31" max="31" width="17.5555555555556" customWidth="1"/>
-    <col min="32" max="32" width="14.1111111111111" customWidth="1"/>
-    <col min="33" max="33" width="18.6666666666667" customWidth="1"/>
-    <col min="34" max="34" width="15.2222222222222" customWidth="1"/>
-    <col min="35" max="36" width="18.6666666666667" customWidth="1"/>
-    <col min="37" max="37" width="16.4444444444444" customWidth="1"/>
-    <col min="38" max="38" width="19.7777777777778" customWidth="1"/>
-    <col min="39" max="39" width="18.6666666666667" customWidth="1"/>
-    <col min="40" max="40" width="19.7777777777778" customWidth="1"/>
-    <col min="41" max="41" width="20.8888888888889" customWidth="1"/>
+    <col min="31" max="31" width="17.5546875" customWidth="1"/>
+    <col min="32" max="32" width="14.109375" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" customWidth="1"/>
+    <col min="34" max="34" width="15.21875" customWidth="1"/>
+    <col min="35" max="36" width="18.6640625" customWidth="1"/>
+    <col min="37" max="37" width="16.44140625" customWidth="1"/>
+    <col min="38" max="38" width="19.77734375" customWidth="1"/>
+    <col min="39" max="39" width="18.6640625" customWidth="1"/>
+    <col min="40" max="40" width="19.77734375" customWidth="1"/>
+    <col min="41" max="41" width="20.88671875" customWidth="1"/>
     <col min="42" max="42" width="13" customWidth="1"/>
-    <col min="43" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="15.2222222222222" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
-    <col min="47" max="47" width="15.2222222222222" customWidth="1"/>
-    <col min="48" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="17.5555555555556" customWidth="1"/>
-    <col min="50" max="50" width="9.66666666666667" customWidth="1"/>
-    <col min="51" max="51" width="15.2222222222222" customWidth="1"/>
-    <col min="52" max="52" width="11.8888888888889" customWidth="1"/>
-    <col min="53" max="53" width="16.4444444444444" customWidth="1"/>
+    <col min="43" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="15.21875" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
+    <col min="47" max="47" width="15.21875" customWidth="1"/>
+    <col min="48" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="17.5546875" customWidth="1"/>
+    <col min="50" max="50" width="9.6640625" customWidth="1"/>
+    <col min="51" max="51" width="15.21875" customWidth="1"/>
+    <col min="52" max="52" width="11.88671875" customWidth="1"/>
+    <col min="53" max="53" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:53">
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -52448,7 +51829,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:53">
+    <row r="2" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -52603,7 +51984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:53">
+    <row r="3" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -52758,7 +52139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:53">
+    <row r="4" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -52913,7 +52294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:53">
+    <row r="5" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -53068,7 +52449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:53">
+    <row r="6" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -53223,7 +52604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:53">
+    <row r="7" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -53378,7 +52759,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:53">
+    <row r="8" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -53533,7 +52914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:53">
+    <row r="9" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -53688,7 +53069,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:53">
+    <row r="10" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -53843,7 +53224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:53">
+    <row r="11" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -53998,7 +53379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:53">
+    <row r="12" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -54156,7 +53537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:53">
+    <row r="13" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -54314,7 +53695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:53">
+    <row r="14" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -54472,7 +53853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:53">
+    <row r="15" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -54630,7 +54011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:53">
+    <row r="16" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -54788,7 +54169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:53">
+    <row r="17" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -54946,7 +54327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:53">
+    <row r="18" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
@@ -55104,7 +54485,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:53">
+    <row r="19" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -55262,7 +54643,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:53">
+    <row r="20" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -55420,7 +54801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:53">
+    <row r="21" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -55578,121 +54959,121 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
+    <row r="22" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX169"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="7" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="7.66666666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
-    <col min="15" max="17" width="11.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="15" max="17" width="11.88671875" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="9.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="19.7777777777778" customWidth="1"/>
-    <col min="21" max="22" width="7.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="17.5555555555556" customWidth="1"/>
-    <col min="24" max="24" width="20.8888888888889" customWidth="1"/>
-    <col min="25" max="25" width="18.6666666666667" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" customWidth="1"/>
-    <col min="27" max="27" width="14.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
+    <col min="20" max="20" width="19.77734375" customWidth="1"/>
+    <col min="21" max="22" width="7.6640625" customWidth="1"/>
+    <col min="23" max="23" width="17.5546875" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="18.6640625" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="16.4444444444444" customWidth="1"/>
-    <col min="30" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="8.66666666666667" customWidth="1"/>
-    <col min="33" max="36" width="15.2222222222222" customWidth="1"/>
-    <col min="37" max="37" width="16.4444444444444" customWidth="1"/>
+    <col min="29" max="29" width="16.44140625" customWidth="1"/>
+    <col min="30" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" customWidth="1"/>
+    <col min="33" max="36" width="15.21875" customWidth="1"/>
+    <col min="37" max="37" width="16.44140625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="14.1111111111111" customWidth="1"/>
+    <col min="39" max="39" width="14.109375" customWidth="1"/>
     <col min="40" max="40" width="13" customWidth="1"/>
-    <col min="41" max="41" width="14.1111111111111" customWidth="1"/>
-    <col min="42" max="42" width="8.66666666666667" customWidth="1"/>
-    <col min="43" max="44" width="16.4444444444444" customWidth="1"/>
-    <col min="45" max="45" width="15.2222222222222" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
+    <col min="41" max="41" width="14.109375" customWidth="1"/>
+    <col min="42" max="42" width="8.6640625" customWidth="1"/>
+    <col min="43" max="44" width="16.44140625" customWidth="1"/>
+    <col min="45" max="45" width="15.21875" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="50" width="11.8888888888889" customWidth="1"/>
+    <col min="48" max="50" width="11.88671875" customWidth="1"/>
     <col min="51" max="51" width="13" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" customWidth="1"/>
     <col min="53" max="53" width="112" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.4444444444444" customWidth="1"/>
-    <col min="56" max="56" width="18.6666666666667" customWidth="1"/>
-    <col min="57" max="57" width="9.66666666666667" customWidth="1"/>
-    <col min="58" max="58" width="18.6666666666667" customWidth="1"/>
-    <col min="59" max="59" width="19.7777777777778" customWidth="1"/>
-    <col min="60" max="60" width="18.6666666666667" customWidth="1"/>
-    <col min="61" max="61" width="16.4444444444444" customWidth="1"/>
-    <col min="62" max="62" width="9.66666666666667" customWidth="1"/>
-    <col min="63" max="63" width="17.5555555555556" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="17.5555555555556" customWidth="1"/>
-    <col min="66" max="66" width="16.4444444444444" customWidth="1"/>
-    <col min="67" max="67" width="19.7777777777778" customWidth="1"/>
-    <col min="68" max="68" width="18.6666666666667" customWidth="1"/>
-    <col min="69" max="69" width="17.5555555555556" customWidth="1"/>
-    <col min="70" max="70" width="16.4444444444444" customWidth="1"/>
-    <col min="71" max="71" width="9.66666666666667" customWidth="1"/>
-    <col min="72" max="72" width="14.1111111111111" customWidth="1"/>
-    <col min="73" max="73" width="18.6666666666667" customWidth="1"/>
-    <col min="74" max="74" width="16.4444444444444" customWidth="1"/>
-    <col min="75" max="76" width="17.5555555555556" customWidth="1"/>
-    <col min="77" max="77" width="7.66666666666667" customWidth="1"/>
-    <col min="78" max="79" width="10.7777777777778" customWidth="1"/>
-    <col min="80" max="80" width="9.66666666666667" customWidth="1"/>
-    <col min="81" max="81" width="6.66666666666667" customWidth="1"/>
-    <col min="82" max="82" width="9.66666666666667" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" customWidth="1"/>
+    <col min="56" max="56" width="18.6640625" customWidth="1"/>
+    <col min="57" max="57" width="9.6640625" customWidth="1"/>
+    <col min="58" max="58" width="18.6640625" customWidth="1"/>
+    <col min="59" max="59" width="19.77734375" customWidth="1"/>
+    <col min="60" max="60" width="18.6640625" customWidth="1"/>
+    <col min="61" max="61" width="16.44140625" customWidth="1"/>
+    <col min="62" max="62" width="9.6640625" customWidth="1"/>
+    <col min="63" max="63" width="17.5546875" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="17.5546875" customWidth="1"/>
+    <col min="66" max="66" width="16.44140625" customWidth="1"/>
+    <col min="67" max="67" width="19.77734375" customWidth="1"/>
+    <col min="68" max="68" width="18.6640625" customWidth="1"/>
+    <col min="69" max="69" width="17.5546875" customWidth="1"/>
+    <col min="70" max="70" width="16.44140625" customWidth="1"/>
+    <col min="71" max="71" width="9.6640625" customWidth="1"/>
+    <col min="72" max="72" width="14.109375" customWidth="1"/>
+    <col min="73" max="73" width="18.6640625" customWidth="1"/>
+    <col min="74" max="74" width="16.44140625" customWidth="1"/>
+    <col min="75" max="76" width="17.5546875" customWidth="1"/>
+    <col min="77" max="77" width="7.6640625" customWidth="1"/>
+    <col min="78" max="79" width="10.77734375" customWidth="1"/>
+    <col min="80" max="80" width="9.6640625" customWidth="1"/>
+    <col min="81" max="81" width="6.6640625" customWidth="1"/>
+    <col min="82" max="82" width="9.6640625" customWidth="1"/>
     <col min="83" max="83" width="13" customWidth="1"/>
-    <col min="84" max="84" width="15.2222222222222" customWidth="1"/>
-    <col min="85" max="85" width="8.66666666666667" customWidth="1"/>
-    <col min="86" max="86" width="17.5555555555556" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="9.66666666666667" customWidth="1"/>
+    <col min="84" max="84" width="15.21875" customWidth="1"/>
+    <col min="85" max="85" width="8.6640625" customWidth="1"/>
+    <col min="86" max="86" width="17.5546875" customWidth="1"/>
+    <col min="87" max="87" width="11.88671875" customWidth="1"/>
+    <col min="88" max="88" width="9.6640625" customWidth="1"/>
     <col min="89" max="91" width="13" customWidth="1"/>
-    <col min="92" max="93" width="11.8888888888889" customWidth="1"/>
-    <col min="94" max="94" width="16.4444444444444" customWidth="1"/>
-    <col min="95" max="95" width="11.8888888888889" customWidth="1"/>
-    <col min="96" max="96" width="16.4444444444444" customWidth="1"/>
-    <col min="97" max="97" width="11.8888888888889" customWidth="1"/>
+    <col min="92" max="93" width="11.88671875" customWidth="1"/>
+    <col min="94" max="94" width="16.44140625" customWidth="1"/>
+    <col min="95" max="95" width="11.88671875" customWidth="1"/>
+    <col min="96" max="96" width="16.44140625" customWidth="1"/>
+    <col min="97" max="97" width="11.88671875" customWidth="1"/>
     <col min="98" max="98" width="13" customWidth="1"/>
-    <col min="99" max="99" width="20.8888888888889" customWidth="1"/>
-    <col min="100" max="100" width="14.1111111111111" customWidth="1"/>
+    <col min="99" max="99" width="20.88671875" customWidth="1"/>
+    <col min="100" max="100" width="14.109375" customWidth="1"/>
     <col min="101" max="101" width="13" customWidth="1"/>
     <col min="102" max="102" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:102">
+    <row r="1" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -56000,7 +55381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:102">
+    <row r="2" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>762</v>
       </c>
@@ -56251,7 +55632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:102">
+    <row r="3" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>789</v>
       </c>
@@ -56502,7 +55883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:102">
+    <row r="4" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>792</v>
       </c>
@@ -56753,7 +56134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:102">
+    <row r="5" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>795</v>
       </c>
@@ -57004,7 +56385,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:102">
+    <row r="6" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>804</v>
       </c>
@@ -57255,7 +56636,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:102">
+    <row r="7" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>812</v>
       </c>
@@ -57506,7 +56887,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:102">
+    <row r="8" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>818</v>
       </c>
@@ -57757,7 +57138,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:102">
+    <row r="9" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>829</v>
       </c>
@@ -58008,7 +57389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:102">
+    <row r="10" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>832</v>
       </c>
@@ -58259,7 +57640,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:102">
+    <row r="11" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>835</v>
       </c>
@@ -58510,7 +57891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:102">
+    <row r="12" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>840</v>
       </c>
@@ -58761,7 +58142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:102">
+    <row r="13" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>844</v>
       </c>
@@ -59012,7 +58393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:102">
+    <row r="14" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>846</v>
       </c>
@@ -59263,7 +58644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:102">
+    <row r="15" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>853</v>
       </c>
@@ -59514,7 +58895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:102">
+    <row r="16" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>858</v>
       </c>
@@ -59765,7 +59146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:102">
+    <row r="17" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>861</v>
       </c>
@@ -60016,7 +59397,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:102">
+    <row r="18" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>868</v>
       </c>
@@ -60267,7 +59648,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:102">
+    <row r="19" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>873</v>
       </c>
@@ -60518,7 +59899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:102">
+    <row r="20" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>875</v>
       </c>
@@ -60769,7 +60150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:102">
+    <row r="21" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>881</v>
       </c>
@@ -61020,7 +60401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:102">
+    <row r="22" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>887</v>
       </c>
@@ -61271,7 +60652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:102">
+    <row r="23" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>894</v>
       </c>
@@ -61522,7 +60903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:102">
+    <row r="24" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>899</v>
       </c>
@@ -61773,7 +61154,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:102">
+    <row r="25" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>903</v>
       </c>
@@ -62024,7 +61405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:102">
+    <row r="26" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>905</v>
       </c>
@@ -62275,7 +61656,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:102">
+    <row r="27" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>910</v>
       </c>
@@ -62526,7 +61907,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:102">
+    <row r="28" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>915</v>
       </c>
@@ -62777,7 +62158,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:102">
+    <row r="29" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>918</v>
       </c>
@@ -63028,7 +62409,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:102">
+    <row r="30" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>921</v>
       </c>
@@ -63279,7 +62660,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:102">
+    <row r="31" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>925</v>
       </c>
@@ -63530,7 +62911,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:102">
+    <row r="32" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>929</v>
       </c>
@@ -63781,7 +63162,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:102">
+    <row r="33" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>942</v>
       </c>
@@ -64032,7 +63413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:102">
+    <row r="34" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>953</v>
       </c>
@@ -64283,7 +63664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:102">
+    <row r="35" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>960</v>
       </c>
@@ -64534,7 +63915,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:102">
+    <row r="36" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>966</v>
       </c>
@@ -64785,7 +64166,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:102">
+    <row r="37" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>970</v>
       </c>
@@ -65036,7 +64417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:102">
+    <row r="38" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>979</v>
       </c>
@@ -65287,7 +64668,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:102">
+    <row r="39" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>983</v>
       </c>
@@ -65541,7 +64922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:102">
+    <row r="40" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>988</v>
       </c>
@@ -65792,7 +65173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:102">
+    <row r="41" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>998</v>
       </c>
@@ -66046,7 +65427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:102">
+    <row r="42" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1001</v>
       </c>
@@ -66297,7 +65678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:102">
+    <row r="43" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1010</v>
       </c>
@@ -66548,7 +65929,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:102">
+    <row r="44" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1019</v>
       </c>
@@ -66799,7 +66180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:102">
+    <row r="45" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1026</v>
       </c>
@@ -67050,7 +66431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:102">
+    <row r="46" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1033</v>
       </c>
@@ -67301,7 +66682,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:102">
+    <row r="47" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1041</v>
       </c>
@@ -67552,7 +66933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:102">
+    <row r="48" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1049</v>
       </c>
@@ -67803,7 +67184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:102">
+    <row r="49" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1057</v>
       </c>
@@ -68054,7 +67435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:102">
+    <row r="50" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1063</v>
       </c>
@@ -68305,7 +67686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:102">
+    <row r="51" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1069</v>
       </c>
@@ -68556,7 +67937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:102">
+    <row r="52" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1077</v>
       </c>
@@ -68807,7 +68188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:102">
+    <row r="53" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1081</v>
       </c>
@@ -69061,7 +68442,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:102">
+    <row r="54" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1085</v>
       </c>
@@ -69312,7 +68693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:102">
+    <row r="55" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1094</v>
       </c>
@@ -69566,7 +68947,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:102">
+    <row r="56" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1097</v>
       </c>
@@ -69817,7 +69198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:102">
+    <row r="57" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1106</v>
       </c>
@@ -70068,7 +69449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:102">
+    <row r="58" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>1115</v>
       </c>
@@ -70319,7 +69700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:102">
+    <row r="59" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1122</v>
       </c>
@@ -70570,7 +69951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:102">
+    <row r="60" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1129</v>
       </c>
@@ -70821,7 +70202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:102">
+    <row r="61" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1138</v>
       </c>
@@ -71072,7 +70453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:102">
+    <row r="62" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1141</v>
       </c>
@@ -71326,7 +70707,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:102">
+    <row r="63" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1144</v>
       </c>
@@ -71577,7 +70958,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:102">
+    <row r="64" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1153</v>
       </c>
@@ -71831,7 +71212,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:102">
+    <row r="65" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1164</v>
       </c>
@@ -72082,7 +71463,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:102">
+    <row r="66" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1174</v>
       </c>
@@ -72333,7 +71714,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="1:102">
+    <row r="67" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1184</v>
       </c>
@@ -72584,7 +71965,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:102">
+    <row r="68" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1191</v>
       </c>
@@ -72835,7 +72216,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" spans="1:102">
+    <row r="69" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1198</v>
       </c>
@@ -73086,7 +72467,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" spans="1:102">
+    <row r="70" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1207</v>
       </c>
@@ -73337,7 +72718,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" spans="1:102">
+    <row r="71" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1210</v>
       </c>
@@ -73591,7 +72972,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" spans="1:102">
+    <row r="72" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1213</v>
       </c>
@@ -73842,7 +73223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" spans="1:102">
+    <row r="73" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1222</v>
       </c>
@@ -74093,7 +73474,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" spans="1:102">
+    <row r="74" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1225</v>
       </c>
@@ -74347,7 +73728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" spans="1:102">
+    <row r="75" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1228</v>
       </c>
@@ -74598,7 +73979,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" spans="1:102">
+    <row r="76" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1234</v>
       </c>
@@ -74849,7 +74230,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" spans="1:102">
+    <row r="77" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1239</v>
       </c>
@@ -75100,7 +74481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" spans="1:102">
+    <row r="78" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1244</v>
       </c>
@@ -75351,7 +74732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" spans="1:102">
+    <row r="79" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>1246</v>
       </c>
@@ -75602,7 +74983,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" spans="1:102">
+    <row r="80" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1248</v>
       </c>
@@ -75853,7 +75234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" spans="1:102">
+    <row r="81" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1255</v>
       </c>
@@ -76104,7 +75485,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" spans="1:102">
+    <row r="82" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1261</v>
       </c>
@@ -76358,7 +75739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" spans="1:102">
+    <row r="83" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1264</v>
       </c>
@@ -76609,7 +75990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" spans="1:102">
+    <row r="84" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1271</v>
       </c>
@@ -76860,7 +76241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" spans="1:102">
+    <row r="85" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1277</v>
       </c>
@@ -77111,7 +76492,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" spans="1:102">
+    <row r="86" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1283</v>
       </c>
@@ -77362,7 +76743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" spans="1:102">
+    <row r="87" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1285</v>
       </c>
@@ -77613,7 +76994,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" spans="1:102">
+    <row r="88" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1287</v>
       </c>
@@ -77864,7 +77245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" spans="1:102">
+    <row r="89" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1293</v>
       </c>
@@ -78115,7 +77496,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" spans="1:102">
+    <row r="90" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1295</v>
       </c>
@@ -78369,7 +77750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" spans="1:102">
+    <row r="91" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1297</v>
       </c>
@@ -78620,7 +78001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" spans="1:102">
+    <row r="92" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1302</v>
       </c>
@@ -78871,7 +78252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" spans="1:102">
+    <row r="93" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1305</v>
       </c>
@@ -79122,7 +78503,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" spans="1:102">
+    <row r="94" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1308</v>
       </c>
@@ -79373,7 +78754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" spans="1:102">
+    <row r="95" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1310</v>
       </c>
@@ -79624,7 +79005,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" spans="1:102">
+    <row r="96" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1312</v>
       </c>
@@ -79875,7 +79256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" spans="1:102">
+    <row r="97" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>1318</v>
       </c>
@@ -80126,7 +79507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" spans="1:102">
+    <row r="98" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1320</v>
       </c>
@@ -80380,7 +79761,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" spans="1:102">
+    <row r="99" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1322</v>
       </c>
@@ -80631,7 +80012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" spans="1:102">
+    <row r="100" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1329</v>
       </c>
@@ -80882,7 +80263,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" spans="1:102">
+    <row r="101" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1335</v>
       </c>
@@ -81133,7 +80514,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" spans="1:102">
+    <row r="102" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>1341</v>
       </c>
@@ -81384,7 +80765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" spans="1:102">
+    <row r="103" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1343</v>
       </c>
@@ -81635,7 +81016,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" spans="1:102">
+    <row r="104" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1345</v>
       </c>
@@ -81886,7 +81267,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" spans="1:102">
+    <row r="105" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1351</v>
       </c>
@@ -82137,7 +81518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" spans="1:102">
+    <row r="106" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1354</v>
       </c>
@@ -82391,7 +81772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" spans="1:102">
+    <row r="107" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1356</v>
       </c>
@@ -82642,7 +82023,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" spans="1:102">
+    <row r="108" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1363</v>
       </c>
@@ -82893,7 +82274,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" spans="1:102">
+    <row r="109" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1370</v>
       </c>
@@ -83144,7 +82525,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" spans="1:102">
+    <row r="110" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1375</v>
       </c>
@@ -83395,7 +82776,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" spans="1:102">
+    <row r="111" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1382</v>
       </c>
@@ -83646,7 +83027,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" spans="1:102">
+    <row r="112" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1384</v>
       </c>
@@ -83897,7 +83278,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" spans="1:102">
+    <row r="113" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1390</v>
       </c>
@@ -84148,7 +83529,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" spans="1:102">
+    <row r="114" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1395</v>
       </c>
@@ -84402,7 +83783,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" spans="1:102">
+    <row r="115" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1398</v>
       </c>
@@ -84638,7 +84019,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" spans="1:102">
+    <row r="116" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1407</v>
       </c>
@@ -84874,7 +84255,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" spans="1:102">
+    <row r="117" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1410</v>
       </c>
@@ -85110,7 +84491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" spans="1:102">
+    <row r="118" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1414</v>
       </c>
@@ -85346,7 +84727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" spans="1:102">
+    <row r="119" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1418</v>
       </c>
@@ -85582,7 +84963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" spans="1:102">
+    <row r="120" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>1421</v>
       </c>
@@ -85818,7 +85199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" spans="1:102">
+    <row r="121" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1424</v>
       </c>
@@ -86054,7 +85435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" spans="1:102">
+    <row r="122" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1426</v>
       </c>
@@ -86290,7 +85671,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" spans="1:102">
+    <row r="123" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1428</v>
       </c>
@@ -86526,7 +85907,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" spans="1:102">
+    <row r="124" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1431</v>
       </c>
@@ -86762,7 +86143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" spans="1:102">
+    <row r="125" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1434</v>
       </c>
@@ -86998,7 +86379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" spans="1:102">
+    <row r="126" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1436</v>
       </c>
@@ -87234,101 +86615,100 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1"/>
-    <row r="128" s="1" customFormat="1"/>
-    <row r="129" s="1" customFormat="1"/>
-    <row r="130" s="1" customFormat="1"/>
-    <row r="131" s="1" customFormat="1"/>
-    <row r="132" s="1" customFormat="1"/>
-    <row r="133" s="1" customFormat="1"/>
-    <row r="134" s="1" customFormat="1"/>
-    <row r="135" s="1" customFormat="1"/>
-    <row r="136" s="1" customFormat="1"/>
-    <row r="137" s="1" customFormat="1"/>
-    <row r="138" s="1" customFormat="1"/>
-    <row r="139" s="1" customFormat="1"/>
-    <row r="140" s="1" customFormat="1"/>
-    <row r="141" s="1" customFormat="1"/>
-    <row r="142" s="1" customFormat="1"/>
-    <row r="143" s="1" customFormat="1"/>
-    <row r="144" s="1" customFormat="1"/>
-    <row r="145" s="1" customFormat="1"/>
-    <row r="146" s="1" customFormat="1"/>
-    <row r="147" s="1" customFormat="1"/>
-    <row r="148" s="1" customFormat="1"/>
-    <row r="149" s="1" customFormat="1"/>
-    <row r="150" s="1" customFormat="1"/>
-    <row r="151" s="1" customFormat="1"/>
-    <row r="152" s="1" customFormat="1"/>
-    <row r="153" s="1" customFormat="1"/>
-    <row r="154" s="1" customFormat="1"/>
-    <row r="155" s="1" customFormat="1"/>
-    <row r="156" s="1" customFormat="1"/>
-    <row r="157" s="1" customFormat="1"/>
-    <row r="158" s="1" customFormat="1"/>
-    <row r="159" s="1" customFormat="1"/>
-    <row r="160" s="1" customFormat="1"/>
-    <row r="161" s="1" customFormat="1"/>
-    <row r="162" s="1" customFormat="1"/>
-    <row r="163" s="1" customFormat="1"/>
-    <row r="164" s="1" customFormat="1"/>
-    <row r="165" s="1" customFormat="1"/>
-    <row r="166" s="1" customFormat="1"/>
-    <row r="167" s="1" customFormat="1"/>
-    <row r="168" s="1" customFormat="1"/>
-    <row r="169" s="1" customFormat="1"/>
+    <row r="127" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="7.66666666666667" customWidth="1"/>
-    <col min="6" max="7" width="11.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="18.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="9.66666666666667" customWidth="1"/>
-    <col min="11" max="12" width="11.8888888888889" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="14.1111111111111" customWidth="1"/>
+    <col min="1" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="18.6666666666667" customWidth="1"/>
-    <col min="18" max="18" width="7.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="11.8888888888889" customWidth="1"/>
-    <col min="20" max="20" width="6.66666666666667" customWidth="1"/>
-    <col min="21" max="21" width="16.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="11.8888888888889" customWidth="1"/>
-    <col min="23" max="23" width="9.66666666666667" customWidth="1"/>
-    <col min="24" max="24" width="16.4444444444444" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="16.4444444444444" customWidth="1"/>
-    <col min="27" max="27" width="11.8888888888889" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="26" max="26" width="16.44140625" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="9.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="17.5555555555556" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="17.5546875" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
     <col min="32" max="32" width="13" customWidth="1"/>
-    <col min="33" max="34" width="15.2222222222222" customWidth="1"/>
-    <col min="35" max="35" width="16.4444444444444" customWidth="1"/>
-    <col min="36" max="36" width="9.66666666666667" customWidth="1"/>
-    <col min="37" max="37" width="15.2222222222222" customWidth="1"/>
+    <col min="33" max="34" width="15.21875" customWidth="1"/>
+    <col min="35" max="35" width="16.44140625" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" customWidth="1"/>
+    <col min="37" max="37" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:37">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -87441,7 +86821,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:37">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -87548,7 +86928,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:37">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -87655,7 +87035,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:37">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -87762,7 +87142,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:37">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -87869,7 +87249,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:37">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -87976,7 +87356,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:37">
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -88083,7 +87463,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:37">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -88190,7 +87570,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:37">
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -88297,7 +87677,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:37">
+    <row r="10" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -88404,7 +87784,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:37">
+    <row r="11" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -88511,7 +87891,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:37">
+    <row r="12" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -88618,7 +87998,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:37">
+    <row r="13" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -88725,7 +88105,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:37">
+    <row r="14" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -88832,7 +88212,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:37">
+    <row r="15" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -88939,7 +88319,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:37">
+    <row r="16" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -89046,7 +88426,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:37">
+    <row r="17" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -89153,7 +88533,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:37">
+    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
@@ -89260,7 +88640,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:37">
+    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -89367,7 +88747,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:37">
+    <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -89474,7 +88854,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:37">
+    <row r="21" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -89581,25 +88961,25 @@
         <v>777</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
-    <row r="32" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
+    <row r="22" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>